--- a/line.xlsx
+++ b/line.xlsx
@@ -1,33 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\My Computer\Documents\Neiroexpert\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A94DD22-31E5-42F1-AEC7-B655C224B1F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D37E871E-FADE-493F-9296-B52AAFE68FB5}"/>
   </bookViews>
   <sheets>
     <sheet name="line" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="47">
+  <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>pk</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
   <si>
     <t>vsp_type</t>
   </si>
   <si>
-    <t>vsp_cstr</t>
-  </si>
-  <si>
     <t>vsp_cnd</t>
   </si>
   <si>
+    <t>rail</t>
+  </si>
+  <si>
+    <t>tie</t>
+  </si>
+  <si>
+    <t>fasten</t>
+  </si>
+  <si>
+    <t>hball_sm</t>
+  </si>
+  <si>
     <t>rad_m</t>
   </si>
   <si>
+    <t>direct</t>
+  </si>
+  <si>
     <t>h_mm</t>
   </si>
   <si>
@@ -40,14 +72,107 @@
     <t>Shkol_mm</t>
   </si>
   <si>
-    <t>f_tr</t>
+    <t>P65</t>
+  </si>
+  <si>
+    <t>beton</t>
+  </si>
+  <si>
+    <t>kb</t>
+  </si>
+  <si>
+    <t>strgh</t>
+  </si>
+  <si>
+    <t>gbr_bp</t>
+  </si>
+  <si>
+    <t>P75</t>
+  </si>
+  <si>
+    <t>gbr_pod</t>
+  </si>
+  <si>
+    <t>lft</t>
+  </si>
+  <si>
+    <t>ars</t>
+  </si>
+  <si>
+    <t>pandr</t>
+  </si>
+  <si>
+    <t>whslo</t>
+  </si>
+  <si>
+    <t>rgt</t>
+  </si>
+  <si>
+    <t>der</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>kd</t>
+  </si>
+  <si>
+    <t>километр</t>
+  </si>
+  <si>
+    <t>пикет</t>
+  </si>
+  <si>
+    <t>номер пути</t>
+  </si>
+  <si>
+    <t>тип всп (1 - бесстык, 2 - звеньевой)</t>
+  </si>
+  <si>
+    <t>состояние пути по оценке 1- отл или хор, 2 - удовл иле неудовл)</t>
+  </si>
+  <si>
+    <t>тип рельса</t>
+  </si>
+  <si>
+    <t>материал шпал</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тип скреплений (КБ, ЖБР подкладочный, ЖБР бесподкладочный, АРС, Пандрол, Фоссло, КД, Д0) </t>
+  </si>
+  <si>
+    <t>толщина балласта, см</t>
+  </si>
+  <si>
+    <t>радиус участка, м</t>
+  </si>
+  <si>
+    <t>направление (лево, право, прямо)</t>
+  </si>
+  <si>
+    <t>возвышение (уровень)</t>
+  </si>
+  <si>
+    <t>уклон, промиле</t>
+  </si>
+  <si>
+    <t>ширина колеи на участке, мм</t>
+  </si>
+  <si>
+    <t>длина участка,м</t>
+  </si>
+  <si>
+    <t>wear_mm</t>
+  </si>
+  <si>
+    <t>боковой износ головки рельса, мм</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,24 +224,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -124,44 +263,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -188,14 +327,32 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -222,9 +379,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -233,195 +408,186 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF1F8249-058B-4BF6-A40B-3F8A330FD95C}">
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" customWidth="1"/>
+    <col min="16" max="16" width="11.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -432,37 +598,1073 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2">
         <v>10000</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>1000</v>
-      </c>
-      <c r="I2">
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>5</v>
+      </c>
+      <c r="O2" s="2">
+        <v>50</v>
+      </c>
+      <c r="P2" s="2">
         <v>1520</v>
       </c>
-      <c r="J2">
-        <v>0.25</v>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="2">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>50</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="2">
+        <v>40</v>
+      </c>
+      <c r="K4" s="2">
+        <v>5000</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2">
+        <v>10</v>
+      </c>
+      <c r="N4" s="2">
+        <v>-5</v>
+      </c>
+      <c r="O4" s="2">
+        <v>50</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="2">
+        <v>25</v>
+      </c>
+      <c r="K5" s="2">
+        <v>10000</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>50</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="2">
+        <v>45</v>
+      </c>
+      <c r="K6" s="2">
+        <v>10000</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>50</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="2">
+        <v>20</v>
+      </c>
+      <c r="K7" s="2">
+        <v>2500</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="2">
+        <v>15</v>
+      </c>
+      <c r="N7" s="2">
+        <v>4</v>
+      </c>
+      <c r="O7" s="2">
+        <v>50</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2">
+        <v>3</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="2">
+        <v>30</v>
+      </c>
+      <c r="K8" s="2">
+        <v>10000</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>50</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="2">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="2">
+        <v>40</v>
+      </c>
+      <c r="K9" s="2">
+        <v>10000</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1</v>
+      </c>
+      <c r="O9" s="2">
+        <v>50</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2">
+        <v>9</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="2">
+        <v>25</v>
+      </c>
+      <c r="K10" s="2">
+        <v>350</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="2">
+        <v>100</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>50</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="2">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="2">
+        <v>45</v>
+      </c>
+      <c r="K11" s="2">
+        <v>10000</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>50</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="2">
+        <v>4</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="2">
+        <v>40</v>
+      </c>
+      <c r="K12" s="2">
+        <v>10000</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>-15</v>
+      </c>
+      <c r="O12" s="2">
+        <v>50</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="2">
+        <v>6</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="2">
+        <v>25</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="2">
+        <v>40</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>50</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="2">
+        <v>7</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="2">
+        <v>45</v>
+      </c>
+      <c r="K14" s="2">
+        <v>10000</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>20</v>
+      </c>
+      <c r="O14" s="2">
+        <v>50</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="2">
+        <v>4</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="2">
+        <v>40</v>
+      </c>
+      <c r="K15" s="2">
+        <v>5000</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="2">
+        <v>10</v>
+      </c>
+      <c r="N15" s="2">
+        <v>-5</v>
+      </c>
+      <c r="O15" s="2">
+        <v>50</v>
+      </c>
+      <c r="P15" s="2">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="2">
+        <v>2</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="2">
+        <v>25</v>
+      </c>
+      <c r="K16" s="2">
+        <v>10000</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <v>50</v>
+      </c>
+      <c r="P16" s="2">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="2">
+        <v>3</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="2">
+        <v>45</v>
+      </c>
+      <c r="K17" s="2">
+        <v>10000</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
+        <v>50</v>
+      </c>
+      <c r="P17" s="2">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2">
+        <v>9</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="2">
+        <v>4</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="2">
+        <v>30</v>
+      </c>
+      <c r="K18" s="2">
+        <v>10000</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
+        <v>50</v>
+      </c>
+      <c r="P18" s="2">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2">
+        <v>9</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="2">
+        <v>40</v>
+      </c>
+      <c r="K19" s="2">
+        <v>10000</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2">
+        <v>1</v>
+      </c>
+      <c r="O19" s="2">
+        <v>50</v>
+      </c>
+      <c r="P19" s="2">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="2">
+        <v>25</v>
+      </c>
+      <c r="K20" s="2">
+        <v>350</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" s="2">
+        <v>100</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2">
+        <v>50</v>
+      </c>
+      <c r="P20" s="2">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2">
+        <v>10</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="2">
+        <v>2</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="2">
+        <v>45</v>
+      </c>
+      <c r="K21" s="2">
+        <v>10000</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2">
+        <v>50</v>
+      </c>
+      <c r="P21" s="2">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
